--- a/Excel Filter Data/results.xlsx
+++ b/Excel Filter Data/results.xlsx
@@ -24,7 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
   <si>
     <t>josdem</t>
   </si>
@@ -32,13 +38,13 @@
     <t>joseluis.delacruz@gmail.com</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>ranking</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>edzero</t>
+  </si>
+  <si>
+    <t>emoranchel@email.com</t>
+  </si>
+  <si>
+    <t>nickname</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,24 +370,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
